--- a/medicine/Enfance/Kochka/Kochka.xlsx
+++ b/medicine/Enfance/Kochka/Kochka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kochka (née Dominique Lancelot[1] le 11 février 1964[2] au Liban) est une écrivaine de littérature jeunesse française. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kochka (née Dominique Lancelot le 11 février 1964 au Liban) est une écrivaine de littérature jeunesse française. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kochka est née en 1964 au Liban d'un père français et d'une mère Libanaise[3]. En 1976, face à la guerre qui éclate au Liban, la famille s'exile et rejoint la France. Kochka étudie en France. En 1989, elle devient avocate. Elle a cinq enfants. En 1997, elle quitte son métier d'avocate et commence à écrire pour la littérature de jeunesse[4].
-En 2016, elle a publié plus de cinquante albums pour enfants[5].  Elle vit près du Mans. Pour les ados, elle aborde les questions comme l'autisme, l'anorexie, la guerre, l’égalité entre les femmes et les hommes[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kochka est née en 1964 au Liban d'un père français et d'une mère Libanaise. En 1976, face à la guerre qui éclate au Liban, la famille s'exile et rejoint la France. Kochka étudie en France. En 1989, elle devient avocate. Elle a cinq enfants. En 1997, elle quitte son métier d'avocate et commence à écrire pour la littérature de jeunesse.
+En 2016, elle a publié plus de cinquante albums pour enfants.  Elle vit près du Mans. Pour les ados, elle aborde les questions comme l'autisme, l'anorexie, la guerre, l’égalité entre les femmes et les hommes.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'Enfant qui caressait les cheveux, éditions Grasset, collection Lampe de Poche, 2002
 Au clair de la Louna, édition Thierry Magnier, collection Roman, 2002
@@ -593,10 +609,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Chronos, pour Des grands-parents magiques, 2006 !
-Prix Dimoitou, 2010[7], pour Le Grand Joseph, éditions Thierry Magnier, 2010
+Prix Dimoitou, 2010, pour Le Grand Joseph, éditions Thierry Magnier, 2010
 Prix Handi-livres 2020, catégorie coup de cœur pour La petite femme du Père-Noël, 2017, éditions Oskar.</t>
         </is>
       </c>
